--- a/backend/data/productsList.xlsx
+++ b/backend/data/productsList.xlsx
@@ -3,13 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="shops" sheetId="1" r:id="rId1"/>
     <sheet name="a" sheetId="2" r:id="rId2"/>
     <sheet name="c" sheetId="3" r:id="rId3"/>
     <sheet name="D" sheetId="4" r:id="rId4"/>
     <sheet name="r" sheetId="5" r:id="rId5"/>
     <sheet name="Cinnaman House" sheetId="6" r:id="rId6"/>
     <sheet name="n" sheetId="7" r:id="rId7"/>
+    <sheet name="Food Court 5" sheetId="8" r:id="rId8"/>
+    <sheet name="Unnatha" sheetId="9" r:id="rId9"/>
   </sheets>
 </workbook>
 </file>
@@ -403,7 +405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -472,9 +474,57 @@
         <v>r</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>uu</v>
+      </c>
+      <c r="B9" t="str">
+        <v>gnfgn</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>Unnatha</v>
+      </c>
+      <c r="B10" t="str">
+        <v>Unnnnatha</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>ttt</v>
+      </c>
+      <c r="B11" t="str">
+        <v>fg nfn</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>Food Court 5</v>
+      </c>
+      <c r="B12" t="str">
+        <v>KSR</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>pp</v>
+      </c>
+      <c r="B13" t="str">
+        <v>nan</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>gg</v>
+      </c>
+      <c r="B14" t="str">
+        <v>dsasdv</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B8"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B14"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -509,6 +559,7 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError numberStoredAsText="1" sqref="A1:C2"/>
   </ignoredErrors>
@@ -522,6 +573,7 @@
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError numberStoredAsText="1" sqref="A1"/>
   </ignoredErrors>
@@ -569,6 +621,7 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError numberStoredAsText="1" sqref="A1:C3"/>
   </ignoredErrors>
@@ -616,6 +669,7 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError numberStoredAsText="1" sqref="A1:C3"/>
   </ignoredErrors>
@@ -623,19 +677,6 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
-  </sheetViews>
-  <sheetData/>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -655,6 +696,42 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
+        <v>Fried Rice</v>
+      </c>
+      <c r="B2">
+        <v>70</v>
+      </c>
+      <c r="C2">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:C2"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>productName</v>
+      </c>
+      <c r="B1" t="str">
+        <v>price</v>
+      </c>
+      <c r="C1" t="str">
+        <v>quantity</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
         <v>d sd sd</v>
       </c>
       <c r="B2">
@@ -665,8 +742,58 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError numberStoredAsText="1" sqref="A1:C2"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>productName</v>
+      </c>
+      <c r="B1" t="str">
+        <v>price</v>
+      </c>
+      <c r="C1" t="str">
+        <v>quantity</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>Pen</v>
+      </c>
+      <c r="B2">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:C2"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData/>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1"/>
+  </ignoredErrors>
+</worksheet>
 </file>